--- a/data/income_statement/2digits/size/49_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/49_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>49-Land transport and transport via pipelines</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>49-Land transport and transport via pipelines</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,896 +841,1011 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5017221.30702</v>
+        <v>5210515.068</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5513778.764059999</v>
+        <v>5725935.61066</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5805125.38145</v>
+        <v>6062175.69453</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5564488.12833</v>
+        <v>5890932.5197</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5580938.42521</v>
+        <v>5951356.10555</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5372065.99454</v>
+        <v>5795956.69248</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5397407.665770001</v>
+        <v>5991169.19512</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5639405.19031</v>
+        <v>6273232.80484</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6122468.078699999</v>
+        <v>6755762.663629999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>13409131.94439</v>
+        <v>14261747.5261</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13921991.36572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15604717.29869</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>16276887.919</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4187563.92349</v>
+        <v>4338634.167440001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4645430.61998</v>
+        <v>4809680.85639</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4896478.950730001</v>
+        <v>5100451.54371</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4681585.662149999</v>
+        <v>4945684.35965</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4681806.80705</v>
+        <v>4983441.23517</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4458360.35433</v>
+        <v>4800382.675869999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4474494.91009</v>
+        <v>4965425.045390001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4592013.0984</v>
+        <v>5114065.08101</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4913923.93504</v>
+        <v>5440551.16831</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10103723.91866</v>
+        <v>10814313.99165</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10308834.66005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11702668.54168</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12533878.682</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>569526.09679</v>
+        <v>598459.2773199999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>590385.81437</v>
+        <v>622594.82903</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>668946.82302</v>
+        <v>706426.52552</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>677814.5677199999</v>
+        <v>720515.4701700001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>716459.44796</v>
+        <v>770515.2163300001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>739833.98413</v>
+        <v>801784.00037</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>757278.2363999999</v>
+        <v>827489.47826</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>870983.65088</v>
+        <v>942848.35182</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>993396.7273199999</v>
+        <v>1055226.78556</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2841107.78458</v>
+        <v>2938271.45631</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3158114.35778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3384522.19757</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3189853.203</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>260131.28674</v>
+        <v>273421.62324</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>277962.32971</v>
+        <v>293659.92524</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>239699.6077</v>
+        <v>255297.6253</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>205087.89846</v>
+        <v>224732.68988</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>182672.1702</v>
+        <v>197399.65405</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>173871.65608</v>
+        <v>193790.01624</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>165634.51928</v>
+        <v>198254.67147</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>176408.44103</v>
+        <v>216319.37201</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>215147.41634</v>
+        <v>259984.70976</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>464300.24115</v>
+        <v>509162.0781400001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>455042.34789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>517526.55944</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>553156.034</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4795.03786</v>
+        <v>5126.04132</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>11163.03399</v>
+        <v>12286.0496</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>9406.348030000001</v>
+        <v>11588.30218</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>10052.64669</v>
+        <v>10515.58095</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6304.80603</v>
+        <v>7346.35595</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8737.39625</v>
+        <v>11522.28593</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6064.631280000001</v>
+        <v>11568.06502</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5173.93796</v>
+        <v>7341.5643</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>10960.47434</v>
+        <v>14134.3474</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>23702.59558</v>
+        <v>32977.50337000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>28123.61903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>33810.72741</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>453802.724</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3899.21116</v>
+        <v>4206.06408</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5302.88693</v>
+        <v>6393.37621</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6687.59643</v>
+        <v>6984.50848</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8469.49271</v>
+        <v>8837.938410000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4915.146779999999</v>
+        <v>5594.08012</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7847.018470000001</v>
+        <v>10558.68069</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4014.227820000001</v>
+        <v>9043.714129999998</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4066.75692</v>
+        <v>5488.32766</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9162.38055</v>
+        <v>12143.18394</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>18136.4829</v>
+        <v>23568.96832</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>23042.99227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>28528.66904</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>445368.679</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>515.08312</v>
+        <v>538.78866</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1287.76211</v>
+        <v>1319.94844</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1243.43191</v>
+        <v>1355.19954</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1122.18418</v>
+        <v>1203.87551</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>586.09777</v>
+        <v>590.6985500000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>264.86666</v>
+        <v>276.42363</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>594.2023</v>
+        <v>912.27579</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>300.73655</v>
+        <v>457.77865</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>327.4986499999999</v>
+        <v>504.39958</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1667.79569</v>
+        <v>2352.22523</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2817.10209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2920.74057</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3021.124</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>380.74358</v>
+        <v>381.18858</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4572.384950000001</v>
+        <v>4572.72495</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1475.31969</v>
+        <v>3248.59416</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>460.9698</v>
+        <v>473.76703</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>803.56148</v>
+        <v>1161.57728</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>625.51112</v>
+        <v>687.18161</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1456.20116</v>
+        <v>1612.0751</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>806.44449</v>
+        <v>1395.45799</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1470.59514</v>
+        <v>1486.76388</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3898.31699</v>
+        <v>7056.30982</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2263.52467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2361.3178</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5412.921</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5012426.26916</v>
+        <v>5205389.02668</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5502615.73007</v>
+        <v>5713649.56106</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5795719.03342</v>
+        <v>6050587.392349999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5554435.48164</v>
+        <v>5880416.938750001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5574633.61918</v>
+        <v>5944009.749600001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5363328.59829</v>
+        <v>5784434.40655</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5391343.03449</v>
+        <v>5979601.130100001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5634231.252350001</v>
+        <v>6265891.24054</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6111507.60436</v>
+        <v>6741628.31623</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13385429.34881</v>
+        <v>14228770.02273</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>13893867.74669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15570906.57128</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15823085.195</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4068168.57963</v>
+        <v>4218264.12581</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4497966.61259</v>
+        <v>4658732.515029999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4771294.631309999</v>
+        <v>4974474.343299999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4529034.42292</v>
+        <v>4786321.751719999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4505826.063</v>
+        <v>4788211.50322</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4272141.20146</v>
+        <v>4594161.803970001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4390763.67609</v>
+        <v>4844031.873699999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4704000.37908</v>
+        <v>5211679.04599</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5104461.568860001</v>
+        <v>5605292.47708</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11401363.54835</v>
+        <v>12130187.64297</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11866621.4802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13295976.17398</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13123730.567</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>68717.89582999999</v>
+        <v>72136.68349</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>69999.09151</v>
+        <v>74692.91863</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>71241.11919</v>
+        <v>79029.49481999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>79416.45571000001</v>
+        <v>86777.41927000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>58629.03628</v>
+        <v>66854.93928999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>62803.03202000001</v>
+        <v>72117.78598</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>69001.02900999998</v>
+        <v>80556.80712</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>51042.21929</v>
+        <v>62396.82675</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>62901.99702</v>
+        <v>74403.72300999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>155614.41493</v>
+        <v>170395.06038</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>178029.59708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>204117.35759</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>167380.268</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>950803.63119</v>
+        <v>977810.1391</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1006719.97543</v>
+        <v>1033342.32302</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>965303.21548</v>
+        <v>996724.442</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>914866.94025</v>
+        <v>957980.6510600001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>907077.0604300001</v>
+        <v>955350.05376</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>780237.32815</v>
+        <v>837165.6576599999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>957194.10176</v>
+        <v>1023602.18419</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1198926.68652</v>
+        <v>1279235.72346</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1104184.24273</v>
+        <v>1181965.74852</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2767786.05821</v>
+        <v>2951823.32636</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2928597.11549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3458866.16863</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3483134.169</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3025998.88679</v>
+        <v>3144010.78543</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3401338.5618</v>
+        <v>3527306.58133</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3718034.67231</v>
+        <v>3879971.38807</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3515448.76298</v>
+        <v>3721217.79936</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3524049.88255</v>
+        <v>3747086.71678</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3393424.31131</v>
+        <v>3645602.89731</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3308998.21753</v>
+        <v>3668522.22181</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3396212.09845</v>
+        <v>3799847.16073</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3862493.46882</v>
+        <v>4257324.89529</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8286059.16749</v>
+        <v>8797637.40082</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8588766.18763</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>9435303.794289999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>9248559.460000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>22648.16582</v>
+        <v>24306.51779</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>19908.98385</v>
+        <v>23390.69205</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>16715.62433</v>
+        <v>18749.01841</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>19302.26398</v>
+        <v>20345.88203</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>16070.08374</v>
+        <v>18919.79339</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>35676.52998000001</v>
+        <v>39275.46302</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>55570.32779</v>
+        <v>71350.66058</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>57819.37482</v>
+        <v>70199.33505000001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>74881.86029</v>
+        <v>91598.11025999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>191903.90772</v>
+        <v>210331.85541</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>171228.58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>197688.85347</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>224656.67</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>944257.68953</v>
+        <v>987124.9008699999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1004649.11748</v>
+        <v>1054917.04603</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1024424.40211</v>
+        <v>1076113.04905</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1025401.05872</v>
+        <v>1094095.18703</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1068807.55618</v>
+        <v>1155798.24638</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1091187.39683</v>
+        <v>1190272.60258</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1000579.3584</v>
+        <v>1135569.2564</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>930230.87327</v>
+        <v>1054212.19455</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1007046.0355</v>
+        <v>1136335.83915</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1984065.80046</v>
+        <v>2098582.37976</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2027246.26649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2274930.3973</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2699354.628</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>915460.9569000001</v>
+        <v>970644.9248399999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>979470.94277</v>
+        <v>1044389.99194</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1009253.61434</v>
+        <v>1077042.73414</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>992033.1021299999</v>
+        <v>1073287.63371</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1011330.40062</v>
+        <v>1108578.18835</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1061478.12514</v>
+        <v>1176370.96314</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>968760.3237800001</v>
+        <v>1118514.71359</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>927545.07712</v>
+        <v>1098904.5234</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1015203.83159</v>
+        <v>1184291.56154</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1918647.72832</v>
+        <v>2062506.41205</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2007218.48812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2277954.527</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2642431.001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2256.74292</v>
+        <v>2294.50948</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2192.89138</v>
+        <v>2203.64191</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1066.32082</v>
+        <v>1066.52412</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2900.27271</v>
+        <v>3105.16702</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3885.91492</v>
+        <v>3891.75544</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3386.21434</v>
+        <v>3390.47785</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2464.65039</v>
+        <v>3126.99001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>949.72793</v>
+        <v>1100.66465</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1296.41025</v>
+        <v>1709.92023</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2636.60169</v>
+        <v>2908.44551</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2147.83861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3616.23691</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>8659.1</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>124795.13854</v>
+        <v>131478.86689</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>146867.63423</v>
+        <v>155288.99423</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>146298.26512</v>
+        <v>154897.22921</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>150926.15961</v>
+        <v>161721.28458</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>162312.10805</v>
+        <v>173854.38509</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>138389.81355</v>
+        <v>156599.52065</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>143110.05316</v>
+        <v>162910.65266</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>144330.53856</v>
+        <v>164779.27179</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>152345.83819</v>
+        <v>168368.01019</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>305889.84083</v>
+        <v>319621.9267</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>321913.81187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>376199.16681</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>358306.761</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>788409.07544</v>
+        <v>836871.54847</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>830410.41716</v>
+        <v>886897.3558</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>861889.0284000001</v>
+        <v>921078.98081</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>838206.66981</v>
+        <v>908461.1821100001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>845132.3776499999</v>
+        <v>930832.0478200001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>919702.0972499999</v>
+        <v>1016380.96464</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>823185.62023</v>
+        <v>952477.07092</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>782264.81063</v>
+        <v>933024.58696</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>861561.58315</v>
+        <v>1014213.63112</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1610121.2858</v>
+        <v>1739976.03984</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1683156.83764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1898139.12328</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2275465.14</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>28796.73263</v>
+        <v>16479.97603</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>25178.17471</v>
+        <v>10527.05409</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>15170.78777</v>
+        <v>-929.6850899999989</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>33367.95659</v>
+        <v>20807.55332</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>57477.15556</v>
+        <v>47220.05803</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>29709.27169</v>
+        <v>13901.63944</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>31819.03462</v>
+        <v>17054.54281</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2685.796149999998</v>
+        <v>-44692.32885</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-8157.79609</v>
+        <v>-47955.72239</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>65418.07214</v>
+        <v>36075.96771</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>20027.77837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-3024.129699999997</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>56923.627</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>31874.09418</v>
+        <v>163480.78576</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>38470.34293999999</v>
+        <v>249215.07067</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>41657.42117</v>
+        <v>271306.51963</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>39142.26975</v>
+        <v>224781.33602</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>30079.6804</v>
+        <v>289770.34215</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>27636.83764</v>
+        <v>310218.87888</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>35928.97648999999</v>
+        <v>1518513.1701</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>28232.86413</v>
+        <v>590924.94705</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>39090.9659</v>
+        <v>574124.9008200001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>126438.88284</v>
+        <v>2745865.147970001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>103604.89838</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1409748.2373</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3146004.435</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>966.3222500000001</v>
+        <v>93201.96710000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>609.6275700000001</v>
+        <v>114753.88588</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>141.72389</v>
+        <v>116677.09294</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>388.8154</v>
+        <v>112694.51503</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>550.73086</v>
+        <v>112420.24191</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>243.55413</v>
+        <v>96980.56973999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>251.45104</v>
+        <v>492965.2034000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>177.45388</v>
+        <v>46851.46340000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>330.18006</v>
+        <v>42720.49645000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>321.65622</v>
+        <v>86271.85904000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>789.64703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>475220.8356400001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>536931.825</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>167.42024</v>
+        <v>169.51021</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>144.27007</v>
+        <v>188.25299</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>133.38982</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>116.5238</v>
+        <v>129.45143</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>184.10963</v>
+        <v>200.35795</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>414.6528299999999</v>
+        <v>470.51087</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>156.46915</v>
+        <v>209.37678</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>55.73286</v>
+        <v>301.39676</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>185.42015</v>
@@ -1838,208 +1854,238 @@
         <v>605.49738</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>212.16644</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>927.42998</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>352.474</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2063.15999</v>
+        <v>6852.881429999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2319.15528</v>
+        <v>4501.34729</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1664.48745</v>
+        <v>5712.37259</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1570.69269</v>
+        <v>6087.82896</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1846.35864</v>
+        <v>6732.592170000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1740.42012</v>
+        <v>4857.05432</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1728.90389</v>
+        <v>4374.64192</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1647.74401</v>
+        <v>5270.452240000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2024.91003</v>
+        <v>5785.679529999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5165.08543</v>
+        <v>10720.35119</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>7019.732599999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>18535.84722</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>12682.848</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1698.4581</v>
+        <v>3880.37018</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2517.38806</v>
+        <v>3465.94303</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2706.23691</v>
+        <v>3335.61183</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>5160.49928</v>
+        <v>6194.40976</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1442.77512</v>
+        <v>2115.07511</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1284.58427</v>
+        <v>1730.74077</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1481.09217</v>
+        <v>1956.88721</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1303.91783</v>
+        <v>1639.7947</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1121.75946</v>
+        <v>2750.70746</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4121.67238</v>
+        <v>4152.78955</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2034.29738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2035.10189</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1660.944</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>680.53386</v>
+        <v>761.92079</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>340.19388</v>
+        <v>367.54968</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1030.28371</v>
+        <v>1125.49053</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>765.22252</v>
+        <v>818.54857</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>738.2656999999999</v>
+        <v>908.6418100000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>112.16786</v>
+        <v>188.73407</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>203.19971</v>
+        <v>4880.657270000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>546.11216</v>
+        <v>552.63275</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>163.83201</v>
+        <v>168.8041</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>807.95212</v>
+        <v>807.9622099999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>571.39739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>596.29704</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1043.373</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>461.34465</v>
+        <v>634.80224</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>766.24627</v>
+        <v>914.3584199999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>522.28635</v>
+        <v>1397.16386</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>364.42025</v>
+        <v>599.19615</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>638.42509</v>
+        <v>778.82845</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>336.13605</v>
+        <v>358.01107</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>208.15323</v>
+        <v>2994.02944</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>643.3456799999999</v>
+        <v>684.85511</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>244.45931</v>
+        <v>1096.16582</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1090.57153</v>
+        <v>1134.06526</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>848.36649</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1678.14603</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1499.883</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6551.00362</v>
+        <v>34108.63661</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>8888.15258</v>
+        <v>97004.09133</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>10989.31438</v>
+        <v>114528.60243</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>5825.60245</v>
+        <v>63071.93562</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>8774.853519999999</v>
+        <v>141429.71391</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8669.071109999999</v>
+        <v>173157.89177</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>11887.31705</v>
+        <v>972026.32648</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9078.944380000001</v>
+        <v>488897.3044</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>12426.31258</v>
+        <v>476021.79761</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>76892.23015999999</v>
+        <v>2585389.19198</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>41222.40383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>836571.96253</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2501112.034</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>60.62936</v>
@@ -2051,7 +2097,7 @@
         <v>21.61164</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>60.25346</v>
+        <v>82.39698</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>19.12574</v>
@@ -2060,7 +2106,7 @@
         <v>16.93046</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>88.39864</v>
+        <v>97.84384</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0</v>
@@ -2072,313 +2118,353 @@
         <v>116.96979</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>7.70486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1802.61377</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>279.44526</v>
+        <v>303.21683</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>788.4392800000001</v>
+        <v>801.93011</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>178.32095</v>
+        <v>182.3174</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>120.58265</v>
+        <v>140.00487</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>156.96949</v>
+        <v>161.14505</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>109.58548</v>
+        <v>118.87768</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>179.29559</v>
+        <v>266.38337</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>37.84484</v>
+        <v>137.9319</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>149.37882</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>651.80765</v>
+        <v>662.1237600000001</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>29.58469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>54.06399</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>630.615</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>18945.77685</v>
+        <v>23506.85101</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>22042.35846</v>
+        <v>27163.20045</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>24269.76607</v>
+        <v>28192.86659</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>24769.65725</v>
+        <v>34963.04865</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>15728.06661</v>
+        <v>25004.62005</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>14709.73533</v>
+        <v>32339.55813</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>19744.69602</v>
+        <v>38741.82039</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>14741.76849</v>
+        <v>46589.11579</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>22438.49742</v>
+        <v>45240.23482</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>36665.44018000001</v>
+        <v>56004.33781</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>50869.59767</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>72325.93921</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>90088.889</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>22155.7358</v>
+        <v>51641.66629</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>25494.6575</v>
+        <v>114891.69258</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>28942.19781</v>
+        <v>147147.08562</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>22387.81364</v>
+        <v>91620.35068999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>22020.11529</v>
+        <v>162932.66663</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>20762.88053</v>
+        <v>176794.35517</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>28734.06139</v>
+        <v>963271.80237</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>23151.113</v>
+        <v>852694.90674</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>32152.85952</v>
+        <v>673488.9296499999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>115793.73738</v>
+        <v>4120504.36607</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>72263.79564</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1509266.40496</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3708040.825</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2402.78543</v>
+        <v>3484.51444</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1887.72018</v>
+        <v>2009.44305</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2045.42501</v>
+        <v>2067.52095</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3864.0179</v>
+        <v>3938.92062</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>958.88423</v>
+        <v>1180.984</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1240.25517</v>
+        <v>1342.08591</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1461.69459</v>
+        <v>1558.09439</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>374.62504</v>
+        <v>507.3751999999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>422.56335</v>
+        <v>561.1039599999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2945.67483</v>
+        <v>3201.9204</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2711.81715</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3016.53338</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2986.78</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1217.95784</v>
+        <v>1632.9404</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1086.803</v>
+        <v>1130.98829</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1231.36033</v>
+        <v>1340.14873</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1643.83509</v>
+        <v>2187.48243</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1175.54388</v>
+        <v>1549.21383</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3041.247020000001</v>
+        <v>3516.02544</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>868.82442</v>
+        <v>932.06552</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1314.69132</v>
+        <v>1577.74058</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1400.55056</v>
+        <v>1864.7173</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2654.11744</v>
+        <v>4399.61417</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1978.99898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9094.79883</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3172.403</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>280.53509</v>
+        <v>492.48595</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>862.7404399999999</v>
+        <v>1152.97061</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>692.54152</v>
+        <v>778.16956</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>381.38584</v>
+        <v>625.34856</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>304.66613</v>
+        <v>423.03703</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>329.72002</v>
+        <v>459.1788299999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>358.27221</v>
+        <v>412.53136</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>78.78561000000001</v>
+        <v>128.96193</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>231.95117</v>
+        <v>397.6944399999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>559.58249</v>
+        <v>567.40637</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>174.20236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>579.3783100000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>486.989</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7449.71058</v>
+        <v>33668.52926</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7417.135929999999</v>
+        <v>93741.12113</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>11310.89487</v>
+        <v>118411.45581</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5883.99819</v>
+        <v>61988.55753000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>9341.33743</v>
+        <v>136320.62322</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8293.16316</v>
+        <v>159601.83811</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12398.04897</v>
+        <v>914363.5779800001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>8604.18987</v>
+        <v>819056.3149300001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>13523.78784</v>
+        <v>638416.6595899999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>86560.31354</v>
+        <v>4074989.59179</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>42062.84097999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1451244.84812</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3657751.086</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>63.32409</v>
+        <v>67.62262</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>90.03873999999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>56.58396</v>
+        <v>79.08395999999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>41.53053</v>
+        <v>48.05283</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>85.79678</v>
+        <v>113.0424</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>48.11872</v>
+        <v>68.00803000000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>37.27875999999999</v>
+        <v>42.59215999999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1.09564</v>
+        <v>7.053269999999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>6.294149999999999</v>
+        <v>17.71339</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>730.0964700000001</v>
@@ -2386,38 +2472,43 @@
       <c r="M41" s="48" t="n">
         <v>23.78005</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>12.313</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>45.93483999999999</v>
+        <v>45.97749</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>429.28316</v>
+        <v>467.63084</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>320.537</v>
+        <v>870.5226100000001</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>117.97397</v>
+        <v>118.09775</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>51.25863</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>51.57274</v>
+        <v>54.60274</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>310.7739</v>
+        <v>310.77402</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>76.90797000000001</v>
+        <v>168.15642</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>15.93048</v>
+        <v>15.93052</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>45.88959000000001</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>33.29245</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>81.346</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>10695.48793</v>
+        <v>12249.59613</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>13720.93605</v>
+        <v>16299.49992</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>13284.85512</v>
+        <v>23600.184</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>10455.07212</v>
+        <v>22713.89097</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>10102.62821</v>
+        <v>23294.50752</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7758.803699999999</v>
+        <v>11752.61611</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13299.16854</v>
+        <v>45652.16694</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>12700.81755</v>
+        <v>31249.30441</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>16551.78197</v>
+        <v>32215.11045</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>22298.06302000001</v>
+        <v>36569.84728</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>25278.86367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>45273.77382</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>43549.908</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>42611.41798000001</v>
+        <v>54819.34951</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>31760.26072</v>
+        <v>41289.47233999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>35558.62604</v>
+        <v>46211.12537</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>44362.66984</v>
+        <v>57140.80697999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>43827.41784</v>
+        <v>67150.98209999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>43996.19317</v>
+        <v>66452.76905</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>44665.11079999999</v>
+        <v>86171.39225000002</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>48570.89689</v>
+        <v>93112.49294</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>48136.34316</v>
+        <v>98942.26243999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>131316.89111</v>
+        <v>193386.70111</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>122657.74646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>204312.91851</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>188880.835</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>36638.29628</v>
+        <v>48185.85128</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>27823.51285</v>
+        <v>36395.53649</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>32173.41942</v>
+        <v>41858.47293</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>40713.76009999999</v>
+        <v>52851.71967</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>39301.0088</v>
+        <v>61300.48787</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>40337.69397</v>
+        <v>61207.28717</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>40917.28562</v>
+        <v>67109.50223</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>44355.91994</v>
+        <v>72000.10096</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>44251.82553</v>
+        <v>75573.16242000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>122859.93092</v>
+        <v>182766.51642</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>114854.65975</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>189912.64383</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>178594.255</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5973.121700000001</v>
+        <v>6633.49823</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3936.74787</v>
+        <v>4893.93585</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3385.20662</v>
+        <v>4352.65244</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3648.90974</v>
+        <v>4289.08731</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4526.40904</v>
+        <v>5850.49423</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3658.4992</v>
+        <v>5245.48188</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3747.82518</v>
+        <v>19061.89002</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>4214.976949999999</v>
+        <v>21112.39198</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3884.51763</v>
+        <v>23369.10002</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>8456.960190000002</v>
+        <v>10620.18469</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>7803.08671</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>14400.27468</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>10286.58</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-4096.32697</v>
+        <v>73499.74599</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>6393.599430000001</v>
+        <v>103560.95984</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-7672.61491</v>
+        <v>77018.62354999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>5759.74286</v>
+        <v>96827.73167000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>21709.30283</v>
+        <v>106906.75145</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-7412.964370000001</v>
+        <v>80873.3941</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-5651.161080000001</v>
+        <v>486124.51829</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-40803.34961</v>
+        <v>-399574.78148</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-49356.03287</v>
+        <v>-246262.01366</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-55253.67351</v>
+        <v>-1531949.9515</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-71288.86534999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-306855.21587</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-693993.598</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>48927.50453</v>
+        <v>61709.96611</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>64512.64892</v>
+        <v>90364.59242</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>64059.69967999999</v>
+        <v>97902.83886</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>66840.24936</v>
+        <v>87152.73479999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>65710.64046</v>
+        <v>92907.85502</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>79953.48682999999</v>
+        <v>114094.40089</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>78918.20778999999</v>
+        <v>132022.33279</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>89136.91075999998</v>
+        <v>162287.76257</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>97421.87490000001</v>
+        <v>150770.98804</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>206180.09645</v>
+        <v>254256.86176</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>234346.45972</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>320464.4232600001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>318482.682</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3893.4245</v>
+        <v>4152.10771</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2028.47939</v>
+        <v>2538.19668</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1342.92453</v>
+        <v>1696.31434</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>643.59912</v>
+        <v>677.0580200000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>784.8762</v>
+        <v>1607.10582</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>591.59394</v>
+        <v>658.72379</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>873.16499</v>
+        <v>1067.87729</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>580.58561</v>
+        <v>4176.48603</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>600.76537</v>
+        <v>712.7046700000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2660.31591</v>
+        <v>5357.232109999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>984.7848300000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4612.04344</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1433.267</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>45034.08003</v>
+        <v>57557.8584</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>62484.16953</v>
+        <v>87826.39573999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>62716.77515000001</v>
+        <v>96206.52451999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>66196.65023999999</v>
+        <v>86475.67677999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>64925.76426</v>
+        <v>91300.74920000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>79361.89289</v>
+        <v>113435.6771</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>78045.0428</v>
+        <v>130954.4555</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>88556.32515</v>
+        <v>158111.27654</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>96821.10953</v>
+        <v>150058.28337</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>203519.78054</v>
+        <v>248899.62965</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>233361.67489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>315852.37982</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>317049.415</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>44260.42055</v>
+        <v>56428.52166</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>58574.92355</v>
+        <v>67600.74159000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>133274.20579</v>
+        <v>164940.5725</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>59416.7899</v>
+        <v>78593.11380000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>58516.98363</v>
+        <v>74473.39179000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>97404.46904</v>
+        <v>119160.57442</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>61636.38015999999</v>
+        <v>92242.50934999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>111957.04244</v>
+        <v>180605.84323</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>76919.23003999999</v>
+        <v>117465.0225</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>182517.16103</v>
+        <v>231643.67357</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>143277.69118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>194055.40951</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>219811.154</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>836.0530699999999</v>
+        <v>1093.0051</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>696.02372</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>376.82561</v>
+        <v>655.75953</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1085.82216</v>
+        <v>1329.85484</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>843.80698</v>
+        <v>907.36428</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>738.5553100000001</v>
+        <v>796.85345</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>601.15035</v>
+        <v>1645.82148</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>466.87847</v>
+        <v>971.0237499999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>543.94002</v>
+        <v>989.59722</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1135.88862</v>
+        <v>1214.03501</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1805.44023</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3491.73153</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2119.593</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2578.4978</v>
+        <v>3663.57308</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3759.09643</v>
+        <v>5002.24512</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3388.98318</v>
+        <v>3774.00758</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3431.25996</v>
+        <v>4231.21867</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3776.71358</v>
+        <v>4227.369070000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2601.55454</v>
+        <v>2986.64461</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2098.54881</v>
+        <v>7572.98488</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1821.94109</v>
+        <v>3778.61239</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1893.27971</v>
+        <v>4224.415770000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5344.76711</v>
+        <v>6154.003739999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3280.38718</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4463.51141</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2785.839</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>40845.86968</v>
+        <v>51671.94348</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>54119.8034</v>
+        <v>61902.47275</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>129508.397</v>
+        <v>160510.80539</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>54899.70778</v>
+        <v>73032.04028999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>53896.46307</v>
+        <v>69338.65844</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>94064.35919</v>
+        <v>115377.07636</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>58936.681</v>
+        <v>83023.70299000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>109668.22288</v>
+        <v>175856.20709</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>74482.01031</v>
+        <v>112251.00951</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>176036.5053</v>
+        <v>224275.63482</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>138191.86377</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>186100.16657</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>214905.722</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>570.7570100000007</v>
+        <v>78781.19043999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>12331.3248</v>
+        <v>126324.81067</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-76887.12101999999</v>
+        <v>9980.889910000002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>13183.20232</v>
+        <v>105387.35267</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>28902.95966</v>
+        <v>125341.21468</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-24863.94658</v>
+        <v>75807.22057</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>11630.66655</v>
+        <v>525904.3417300001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-63623.48129</v>
+        <v>-417892.86214</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-28853.38801</v>
+        <v>-212956.04812</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-31590.73809</v>
+        <v>-1509336.76331</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>19779.90319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-180446.20212</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-595322.0699999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>18143.80039</v>
+        <v>19863.49743</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>19967.03406</v>
+        <v>26708.66144</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>21375.24268</v>
+        <v>26316.43786</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>22708.09438</v>
+        <v>27703.8475</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>24096.90952</v>
+        <v>33076.67764</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>23860.58762</v>
+        <v>32091.84755</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>25177.35326</v>
+        <v>32754.15454</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>24126.08266</v>
+        <v>48016.84497999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>23961.8764</v>
+        <v>38270.49769</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>59087.56031</v>
+        <v>69365.59584000002</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>63505.26053999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>80604.47223</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>89982.00599999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-17573.04338</v>
+        <v>58917.69300999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-7635.70926</v>
+        <v>99616.14923</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-98262.3637</v>
+        <v>-16335.54795000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-9524.89206</v>
+        <v>77683.50517</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4806.050139999999</v>
+        <v>92264.53704000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-48724.5342</v>
+        <v>43715.37302000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-13546.68671</v>
+        <v>493150.1871900001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-87749.56395</v>
+        <v>-465909.70712</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-52815.26441</v>
+        <v>-251226.54581</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-90678.2984</v>
+        <v>-1578702.35915</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-43725.35734999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-261050.67435</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-685304.076</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>17597</v>
+        <v>18132</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>18632</v>
+        <v>19241</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>18150</v>
+        <v>18862</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>16545</v>
+        <v>17454</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>15237</v>
+        <v>16261</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>14420</v>
+        <v>15614</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>13894</v>
+        <v>15461</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>13576</v>
+        <v>15311</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>13759</v>
+        <v>15517</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>17011</v>
+        <v>18361</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>16910</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>18896</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>19627</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>